--- a/anaf_reports/AnafReportsSummary.xlsx
+++ b/anaf_reports/AnafReportsSummary.xlsx
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,13 +1204,13 @@
       <c r="C6" s="19">
         <v>26</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="18">
         <v>15</v>
       </c>
       <c r="E6" s="19">
         <v>1292</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="20">
         <v>646</v>
       </c>
       <c r="G6" s="18">
@@ -1245,13 +1245,13 @@
       <c r="C7" s="19">
         <v>645</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <v>355</v>
       </c>
       <c r="E7" s="19">
         <v>32290</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="20">
         <v>16145</v>
       </c>
       <c r="G7" s="18">

--- a/anaf_reports/AnafReportsSummary.xlsx
+++ b/anaf_reports/AnafReportsSummary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>-</t>
   </si>
@@ -378,7 +378,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,19 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,101 +612,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1025,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,68 +1038,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="B3" s="25"/>
+      <c r="C3" s="32">
         <v>2016</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="33">
         <v>2017</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="32">
         <v>2016</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="34">
         <v>2017</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="33">
         <v>2016</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="34">
         <v>2017</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="32">
         <v>2016</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="34">
         <v>2017</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="32">
         <v>2016</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="34">
         <v>2017</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="33">
         <v>2016</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="35">
         <v>2017</v>
       </c>
     </row>
@@ -1113,335 +1107,347 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>305</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>154</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="2">
         <v>445</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="4">
         <v>444</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="9">
         <v>2</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="10">
         <v>755</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="12">
         <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="8">
+      <c r="B5" s="26"/>
+      <c r="C5" s="9">
         <v>7604</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>3840</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="2">
         <v>11120</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="4">
         <v>11097</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="10">
         <v>44</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="10">
         <v>44</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="9">
         <v>52</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="11">
         <v>52</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="9">
         <v>44</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="11">
         <v>44</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="10">
         <v>18864</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="12">
         <v>15077</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="9">
         <v>26</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="10">
         <v>15</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="9">
         <v>1292</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="11">
         <v>646</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="9">
         <v>1</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="10">
         <v>1320</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="12">
         <v>661</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="19">
+      <c r="B7" s="26"/>
+      <c r="C7" s="9">
         <v>645</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="10">
         <v>355</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="9">
         <v>32290</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="11">
         <v>16145</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="10">
         <v>38</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="10">
         <v>15</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="9">
         <v>10</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="11">
         <v>5</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="9">
         <v>10</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="11">
         <v>5</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="10">
         <v>32993</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="12">
         <v>16525</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>3980</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="3">
         <v>1646</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>5370</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>2238</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="10">
         <v>23</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="10">
         <v>9</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="9">
         <v>26</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="11">
         <v>11</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="9">
         <v>22</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="11">
         <v>9</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="10">
         <v>9419</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="12">
         <v>3913</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="11">
+      <c r="B9" s="26"/>
+      <c r="C9" s="5">
         <v>99481</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>41139</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>134239</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="7">
         <v>55949</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="13">
         <v>564</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="13">
         <v>225</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="14">
         <v>648</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="15">
         <v>270</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="14">
         <v>540</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="15">
         <v>220</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="10">
         <v>235472</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="12">
         <v>97803</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
+      <c r="C10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
         <v>328</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13">
+      <c r="E10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
         <v>447</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
+      <c r="G10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>2</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24">
+      <c r="I10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <v>3</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24">
+      <c r="K10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
         <v>2</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="21">
+      <c r="M10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
         <v>780</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="20">
         <v>8187</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="21">
         <v>11165</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="20">
         <v>45</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="21">
         <v>53</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="21">
         <v>44</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="23">
         <v>19494</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>

--- a/anaf_reports/AnafReportsSummary.xlsx
+++ b/anaf_reports/AnafReportsSummary.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,10 +1116,10 @@
       <c r="D4" s="10">
         <v>154</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>445</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="11">
         <v>444</v>
       </c>
       <c r="G4" s="10">
@@ -1155,10 +1155,10 @@
       <c r="D5" s="10">
         <v>3840</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>11120</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="11">
         <v>11097</v>
       </c>
       <c r="G5" s="10">

--- a/anaf_reports/AnafReportsSummary.xlsx
+++ b/anaf_reports/AnafReportsSummary.xlsx
@@ -678,6 +678,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -687,26 +705,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,67 +1039,67 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="29" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="25"/>
-      <c r="C3" s="32">
+      <c r="C3" s="26">
         <v>2016</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="27">
         <v>2017</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="26">
         <v>2016</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="28">
         <v>2017</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="27">
         <v>2016</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="28">
         <v>2017</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="26">
         <v>2016</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="28">
         <v>2017</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="26">
         <v>2016</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="28">
         <v>2017</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="27">
         <v>2016</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="29">
         <v>2017</v>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9">
         <v>7604</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9">
@@ -1235,7 +1235,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="9">
         <v>645</v>
       </c>
@@ -1279,10 +1279,10 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>3980</v>
       </c>
       <c r="D8" s="3">
@@ -1322,8 +1322,8 @@
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="5">
+      <c r="B9" s="32"/>
+      <c r="C9" s="14">
         <v>99481</v>
       </c>
       <c r="D9" s="6">
@@ -1366,7 +1366,7 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -1409,7 +1409,7 @@
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="19" t="s">
         <v>0</v>
       </c>

--- a/anaf_reports/AnafReportsSummary.xlsx
+++ b/anaf_reports/AnafReportsSummary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AnafTransparentReporting\anaf_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\anaf_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -607,28 +607,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +1007,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,68 +1020,68 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20">
         <v>2016</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="21">
         <v>2017</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="20">
         <v>2016</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="22">
         <v>2017</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="21">
         <v>2016</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="22">
         <v>2017</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="20">
         <v>2016</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="22">
         <v>2017</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="20">
         <v>2016</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="22">
         <v>2017</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="21">
         <v>2016</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="23">
         <v>2017</v>
       </c>
     </row>
@@ -1107,347 +1089,347 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="3">
         <v>305</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="4">
         <v>154</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <v>445</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>444</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="5">
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="5">
         <v>2</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="4">
         <v>755</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="6">
         <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="9">
+      <c r="B5" s="26"/>
+      <c r="C5" s="3">
         <v>7604</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>3840</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <v>11120</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>11097</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <v>44</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="4">
         <v>44</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="3">
         <v>52</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="5">
         <v>52</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="3">
         <v>44</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="5">
         <v>44</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="4">
         <v>18864</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="6">
         <v>15077</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>26</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>1292</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>646</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="4">
         <v>1320</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="6">
         <v>661</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="9">
+      <c r="B7" s="26"/>
+      <c r="C7" s="3">
         <v>645</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>355</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>32290</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>16145</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <v>38</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="4">
         <v>15</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>10</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="5">
         <v>5</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="3">
         <v>10</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="5">
         <v>5</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="4">
         <v>32993</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="6">
         <v>16525</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>3980</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>1646</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>5370</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>2238</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <v>23</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="4">
         <v>9</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="3">
         <v>26</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="5">
         <v>11</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="3">
         <v>22</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="5">
         <v>9</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="4">
         <v>9419</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="6">
         <v>3913</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="14">
+      <c r="B9" s="26"/>
+      <c r="C9" s="8">
         <v>99481</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>41139</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>134239</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>55949</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <v>564</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="7">
         <v>225</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>648</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="9">
         <v>270</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>540</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="9">
         <v>220</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="4">
         <v>235472</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="6">
         <v>97803</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="7">
         <v>328</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="9">
         <v>447</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="9">
         <v>3</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="9">
         <v>2</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="6">
         <v>780</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="14">
         <v>8187</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="15">
         <v>11165</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="14">
         <v>45</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="15">
         <v>53</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="15">
         <v>44</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="17">
         <v>19494</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
